--- a/xlsx/起亚汽车_intext.xlsx
+++ b/xlsx/起亚汽车_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>起亚汽车</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E4%BB%A3%E8%99%9F</t>
   </si>
   <si>
-    <t>股票代號</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_起亚汽车</t>
+    <t>股票代号</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_起亚汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E4%BA%A4%E6%98%93%E6%89%80</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E8%8D%89%E5%8D%80</t>
   </si>
   <si>
-    <t>瑞草區</t>
+    <t>瑞草区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%AF%E6%89%8D%E6%B4%9E</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%89%8D%E6%81%AF%E5%89%8D%E5%88%A9%E6%BD%A4</t>
   </si>
   <si>
-    <t>稅前息前利潤</t>
+    <t>税前息前利润</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>朝鮮漢字</t>
+    <t>朝鲜汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E8%A7%82%E5%85%89%E9%83%A82000%E5%B9%B4%E5%BC%8F</t>
@@ -197,15 +197,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E9%87%91%E8%9E%8D%E9%A2%A8%E6%9A%B4</t>
   </si>
   <si>
-    <t>亞洲金融風暴</t>
+    <t>亚洲金融风暴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>現代汽車</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Audi_TT</t>
   </si>
   <si>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%B7%E4%BA%9E%E7%A7%80%E7%88%BE</t>
   </si>
   <si>
-    <t>起亞秀爾</t>
+    <t>起亚秀尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%B7%E4%BA%9A%E8%99%8E</t>
@@ -233,15 +230,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E8%81%B7%E6%A3%92</t>
   </si>
   <si>
-    <t>韓國職棒</t>
+    <t>韩国职棒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%B7%E4%BA%9E%E8%99%8E</t>
   </si>
   <si>
-    <t>起亞虎</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E5%BE%B7%E5%9B%BD%E4%B8%96%E7%95%8C%E6%9D%AF</t>
   </si>
   <si>
@@ -281,31 +275,31 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%8F%BE%E4%BB%A3</t>
   </si>
   <si>
-    <t>Template talk-現代</t>
+    <t>Template talk-现代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>現代集團</t>
+    <t>现代集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3Rotem</t>
   </si>
   <si>
-    <t>現代Rotem</t>
+    <t>现代Rotem</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%8C%97%E7%8F%BE%E4%BB%A3%E6%B1%BD%E8%BB%8A%E8%B6%B3%E7%90%83%E4%BF%B1%E6%A8%82%E9%83%A8</t>
   </si>
   <si>
-    <t>全北現代汽車足球俱樂部</t>
+    <t>全北现代汽车足球俱乐部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%9A%E5%B1%B1%E7%8F%BE%E4%BB%A3%E5%A4%AA%E9%99%BD%E7%A5%9E</t>
   </si>
   <si>
-    <t>蔚山現代太陽神</t>
+    <t>蔚山现代太阳神</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E9%87%8D%E5%B7%A5%E4%B8%9A</t>
@@ -1558,7 +1552,7 @@
         <v>61</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G31" t="n">
         <v>4</v>
@@ -1584,10 +1578,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1613,10 +1607,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1642,10 +1636,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -1671,10 +1665,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1700,10 +1694,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1729,10 +1723,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -1758,10 +1752,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1787,10 +1781,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1816,10 +1810,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1845,10 +1839,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1874,10 +1868,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1903,10 +1897,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1932,10 +1926,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -1961,10 +1955,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2019,10 +2013,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2048,10 +2042,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2077,10 +2071,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2106,10 +2100,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2135,10 +2129,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
